--- a/sample_excel_files/test_case_min_max_submission.xlsx
+++ b/sample_excel_files/test_case_min_max_submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93879C13-C57E-4548-B72B-7F7BA4497B6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D9E81B-AF6D-6643-8AE9-FDB3BF6E0504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32540" yWindow="1360" windowWidth="19200" windowHeight="19440" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Samples" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sample Data</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>// student uses correct max formula, should pass</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>should_get_offer1</t>
   </si>
 </sst>
 </file>
@@ -412,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3339B06-2787-1140-B1BC-BB2077245310}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="41.1640625" customWidth="1"/>
   </cols>
@@ -481,6 +487,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f xml:space="preserve"> IF(B8,B2,B3)</f>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
